--- a/output/1Y_P106_1VAL-D.xlsx
+++ b/output/1Y_P106_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>553.7252</v>
       </c>
-      <c r="G2" s="1">
-        <v>553.7252</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.116</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0595</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.116</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.696</v>
       </c>
+      <c r="E3" s="1">
+        <v>553.7252</v>
+      </c>
       <c r="F3" s="1">
         <v>534.8738</v>
       </c>
-      <c r="G3" s="1">
-        <v>1088.599</v>
-      </c>
       <c r="H3" s="1">
-        <v>20246.9608</v>
+        <v>10298.7901</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.3722</v>
+        <v>10298.7901</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0595</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20246.9608</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.015</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E4" s="1">
+        <v>1088.599</v>
+      </c>
       <c r="F4" s="1">
         <v>559.5846</v>
       </c>
-      <c r="G4" s="1">
-        <v>1648.1835</v>
-      </c>
       <c r="H4" s="1">
-        <v>29300.9122</v>
+        <v>19352.7857</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.2019</v>
+        <v>19352.7857</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.3722</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29300.9122</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0313</v>
+        <v>-0.0466</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E5" s="1">
+        <v>1648.1835</v>
+      </c>
       <c r="F5" s="1">
         <v>569.4631000000001</v>
       </c>
-      <c r="G5" s="1">
-        <v>2217.6466</v>
-      </c>
       <c r="H5" s="1">
-        <v>38740.956</v>
+        <v>28792.7772</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0371</v>
+        <v>28792.7772</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.2019</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38740.956</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0142</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E6" s="1">
+        <v>2217.6466</v>
+      </c>
       <c r="F6" s="1">
         <v>573.7926</v>
       </c>
-      <c r="G6" s="1">
-        <v>2791.4392</v>
-      </c>
       <c r="H6" s="1">
-        <v>48396.5776</v>
+        <v>38448.4485</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9119</v>
+        <v>38448.4485</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0371</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48396.5776</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0071</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E7" s="1">
+        <v>2791.4392</v>
+      </c>
       <c r="F7" s="1">
         <v>568.4014</v>
       </c>
-      <c r="G7" s="1">
-        <v>3359.8407</v>
-      </c>
       <c r="H7" s="1">
-        <v>58803.9311</v>
+        <v>48855.7694</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.858</v>
+        <v>48855.7694</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9119</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58803.9311</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E8" s="1">
+        <v>3359.8407</v>
+      </c>
       <c r="F8" s="1">
         <v>614.4733</v>
       </c>
-      <c r="G8" s="1">
-        <v>3974.314</v>
-      </c>
       <c r="H8" s="1">
-        <v>64342.9507</v>
+        <v>54394.8123</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6131</v>
+        <v>54394.8123</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.858</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64342.9507</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0648</v>
+        <v>-0.07580000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.0497</v>
       </c>
+      <c r="E9" s="1">
+        <v>3974.314</v>
+      </c>
       <c r="F9" s="1">
         <v>586.5205999999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>4560.8345</v>
-      </c>
       <c r="H9" s="1">
-        <v>77357.22689999999</v>
+        <v>67409.1339</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5406</v>
+        <v>67409.1339</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6131</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77357.22689999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0405</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.4616</v>
       </c>
+      <c r="E10" s="1">
+        <v>4560.8345</v>
+      </c>
       <c r="F10" s="1">
         <v>572.6852</v>
       </c>
-      <c r="G10" s="1">
-        <v>5133.5197</v>
-      </c>
       <c r="H10" s="1">
-        <v>89174.3716</v>
+        <v>79226.25689999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5318</v>
+        <v>79226.25689999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5406</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89174.3716</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0208</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.8249</v>
       </c>
+      <c r="E11" s="1">
+        <v>5133.5197</v>
+      </c>
       <c r="F11" s="1">
         <v>561.013</v>
       </c>
-      <c r="G11" s="1">
-        <v>5694.5327</v>
-      </c>
       <c r="H11" s="1">
-        <v>100978.3014</v>
+        <v>91030.139</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5607</v>
+        <v>91030.139</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5318</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100978.3014</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0182</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.8446</v>
       </c>
+      <c r="E12" s="1">
+        <v>5694.5327</v>
+      </c>
       <c r="F12" s="1">
         <v>593.6621</v>
       </c>
-      <c r="G12" s="1">
-        <v>6288.1948</v>
-      </c>
       <c r="H12" s="1">
-        <v>105373.1664</v>
+        <v>95424.99310000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4931</v>
+        <v>95424.99310000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5607</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>105373.1664</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0505</v>
+        <v>-0.0555</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.4603</v>
       </c>
+      <c r="E13" s="1">
+        <v>6288.1948</v>
+      </c>
       <c r="F13" s="1">
         <v>607.5223</v>
       </c>
-      <c r="G13" s="1">
-        <v>6895.7171</v>
-      </c>
       <c r="H13" s="1">
-        <v>112916.6783</v>
+        <v>102968.5607</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4021</v>
+        <v>102968.5607</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4931</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112916.6783</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0213</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.8064</v>
       </c>
+      <c r="E14" s="1">
+        <v>6895.7171</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6895.7171</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6288.1948</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108431.0143</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4021</v>
+        <v>108431.0143</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9519</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108431.0143</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108431.0143</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108431.0143</v>
+        <v>98878.09</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1178</v>
+        <v>-0.0402</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.0595</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>553.7252</v>
       </c>
       <c r="G2" s="1">
-        <v>553.7252</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.116</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0595</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.116</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.696</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>553.7252</v>
       </c>
       <c r="F3" s="1">
         <v>521.5957</v>
       </c>
       <c r="G3" s="1">
-        <v>1075.3208</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10298.7901</v>
       </c>
       <c r="I3" s="1">
-        <v>19751.7525</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.3682</v>
+        <v>10298.7901</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9751.752500000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6112</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9751.752500000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>248.2475</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20248.2475</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.015</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.8704</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1075.3208</v>
       </c>
       <c r="F4" s="1">
         <v>573.4761</v>
       </c>
       <c r="G4" s="1">
-        <v>1648.797</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29311.8177</v>
+        <v>19116.7315</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>248.2475</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1951</v>
+        <v>19364.9789</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.5991</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10248.2475</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29311.8177</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.031</v>
+        <v>-0.046</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.5604</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1648.797</v>
       </c>
       <c r="F5" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2218.2601</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38751.6725</v>
+        <v>28803.4936</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0322</v>
+        <v>28803.4936</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1951</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38751.6725</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0142</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.4279</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2218.2601</v>
       </c>
       <c r="F6" s="1">
         <v>573.7926</v>
       </c>
       <c r="G6" s="1">
-        <v>2792.0527</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>48407.2131</v>
+        <v>38459.084</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.908</v>
+        <v>38459.084</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0322</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48407.2131</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0071</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.5932</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2792.0527</v>
       </c>
       <c r="F7" s="1">
         <v>568.4014</v>
       </c>
       <c r="G7" s="1">
-        <v>3360.4541</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58814.6676</v>
+        <v>48866.5058</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8547</v>
+        <v>48866.5058</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.908</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58814.6676</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.2741</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3360.4541</v>
       </c>
       <c r="F8" s="1">
         <v>614.4733</v>
       </c>
       <c r="G8" s="1">
-        <v>3974.9274</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64352.8821</v>
+        <v>54404.7437</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6104</v>
+        <v>54404.7437</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8547</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64352.8821</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0648</v>
+        <v>-0.07580000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.0497</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3974.9274</v>
       </c>
       <c r="F9" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4561.448</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>77367.6315</v>
+        <v>67419.5386</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5383</v>
+        <v>67419.5386</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6104</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77367.6315</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0405</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.4616</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4561.448</v>
       </c>
       <c r="F10" s="1">
         <v>572.6852</v>
       </c>
       <c r="G10" s="1">
-        <v>5134.1332</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>89185.0276</v>
+        <v>79236.9129</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5297</v>
+        <v>79236.9129</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5383</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89185.0276</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0208</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.8249</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5134.1332</v>
       </c>
       <c r="F11" s="1">
         <v>505.2296</v>
       </c>
       <c r="G11" s="1">
-        <v>5639.3628</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>91041.0168</v>
       </c>
       <c r="I11" s="1">
-        <v>99005.6664</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5562</v>
+        <v>91041.0168</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89005.6664</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3361</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9005.6664</v>
       </c>
-      <c r="O11" s="1">
-        <v>994.3336</v>
-      </c>
-      <c r="P11" s="1">
-        <v>100994.3336</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0182</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.8446</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5639.3628</v>
       </c>
       <c r="F12" s="1">
         <v>652.6919</v>
       </c>
       <c r="G12" s="1">
-        <v>6292.0546</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>105437.847</v>
+        <v>94500.49340000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>994.3336</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4824</v>
+        <v>95494.827</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7325</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10994.3336</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>105437.847</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0501</v>
+        <v>-0.0549</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.4603</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6292.0546</v>
       </c>
       <c r="F13" s="1">
         <v>607.5223</v>
       </c>
       <c r="G13" s="1">
-        <v>6899.577</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112979.8829</v>
+        <v>103031.7653</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3924</v>
+        <v>103031.7653</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4824</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112979.8829</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0213</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>15.8064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6899.577</v>
       </c>
       <c r="F14" s="1">
         <v>-6899.577</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108491.7081</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3924</v>
+        <v>108491.7081</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.943</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108491.7081</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108491.7081</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>108491.7081</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1178</v>
+        <v>-0.0402</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.0595</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>553.7252</v>
       </c>
       <c r="G2" s="1">
-        <v>553.7252</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.116</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0595</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.116</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.696</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>553.7252</v>
       </c>
       <c r="F3" s="1">
         <v>524.284</v>
       </c>
       <c r="G3" s="1">
-        <v>1078.0092</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10298.7901</v>
       </c>
       <c r="I3" s="1">
-        <v>19802.013</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.3691</v>
+        <v>10298.7901</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9802.013000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7019</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9802.013000000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>197.987</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20247.987</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.015</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.8704</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1078.0092</v>
       </c>
       <c r="F4" s="1">
         <v>570.6636</v>
       </c>
       <c r="G4" s="1">
-        <v>1648.6728</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29309.6098</v>
+        <v>19164.5233</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>197.987</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1965</v>
+        <v>19362.5103</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.5527</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10197.987</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29309.6098</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.031</v>
+        <v>-0.0461</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.5604</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1648.6728</v>
       </c>
       <c r="F5" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2218.1359</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38749.5028</v>
+        <v>28801.3239</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0332</v>
+        <v>28801.3239</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1965</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38749.5028</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0142</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.4279</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2218.1359</v>
       </c>
       <c r="F6" s="1">
         <v>573.7926</v>
       </c>
       <c r="G6" s="1">
-        <v>2791.9285</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>48405.0598</v>
+        <v>38456.9307</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9088</v>
+        <v>38456.9307</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0332</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48405.0598</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0071</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.5932</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2791.9285</v>
       </c>
       <c r="F7" s="1">
         <v>568.4014</v>
       </c>
       <c r="G7" s="1">
-        <v>3360.3299</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58812.4939</v>
+        <v>48864.3321</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8554</v>
+        <v>48864.3321</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9088</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58812.4939</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.2741</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3360.3299</v>
       </c>
       <c r="F8" s="1">
         <v>614.4733</v>
       </c>
       <c r="G8" s="1">
-        <v>3974.8032</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64350.8714</v>
+        <v>54402.7329</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6109</v>
+        <v>54402.7329</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8554</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64350.8714</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0648</v>
+        <v>-0.07580000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.0497</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3974.8032</v>
       </c>
       <c r="F9" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4561.3238</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>77365.52499999999</v>
+        <v>67417.43210000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5388</v>
+        <v>67417.43210000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6109</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77365.52499999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0405</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.4616</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4561.3238</v>
       </c>
       <c r="F10" s="1">
         <v>572.6852</v>
       </c>
       <c r="G10" s="1">
-        <v>5134.009</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>89182.8702</v>
+        <v>79234.7555</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5302</v>
+        <v>79234.7555</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5388</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89182.8702</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0208</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.8249</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5134.009</v>
       </c>
       <c r="F11" s="1">
         <v>561.013</v>
       </c>
       <c r="G11" s="1">
-        <v>5695.022</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>100986.9768</v>
+        <v>91038.8144</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5592</v>
+        <v>91038.8144</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5302</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100986.9768</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0182</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.8446</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5695.022</v>
       </c>
       <c r="F12" s="1">
         <v>593.6621</v>
       </c>
       <c r="G12" s="1">
-        <v>6288.684</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>105381.3647</v>
+        <v>95433.1914</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4917</v>
+        <v>95433.1914</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5592</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>105381.3647</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0505</v>
+        <v>-0.0555</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.4603</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6288.684</v>
       </c>
       <c r="F13" s="1">
         <v>607.5223</v>
       </c>
       <c r="G13" s="1">
-        <v>6896.2064</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>112924.6896</v>
+        <v>102976.572</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4009</v>
+        <v>102976.572</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4917</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112924.6896</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0213</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>15.8064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6896.2064</v>
       </c>
       <c r="F14" s="1">
         <v>-6896.2064</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108438.7073</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4009</v>
+        <v>108438.7073</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9508</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108438.7073</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108438.7073</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>108438.7073</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1178</v>
+        <v>-0.0402</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.0595</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>553.7252</v>
       </c>
       <c r="G2" s="1">
-        <v>553.7252</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.116</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0595</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.116</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.696</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>553.7252</v>
       </c>
       <c r="F3" s="1">
         <v>526.9723</v>
       </c>
       <c r="G3" s="1">
-        <v>1080.6975</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10298.7901</v>
       </c>
       <c r="I3" s="1">
-        <v>19852.2735</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.3699</v>
+        <v>10298.7901</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9852.273499999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7927</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9852.273499999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>147.7265</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20247.7265</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.015</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.8704</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1080.6975</v>
       </c>
       <c r="F4" s="1">
         <v>567.8511</v>
       </c>
       <c r="G4" s="1">
-        <v>1648.5486</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29307.4018</v>
+        <v>19212.3151</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>147.7265</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1978</v>
+        <v>19360.0416</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.5066</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10147.7265</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29307.4018</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0311</v>
+        <v>-0.0462</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.5604</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1648.5486</v>
       </c>
       <c r="F5" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2218.0117</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38747.3331</v>
+        <v>28799.1543</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0342</v>
+        <v>28799.1543</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1978</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38747.3331</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0142</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.4279</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2218.0117</v>
       </c>
       <c r="F6" s="1">
         <v>573.7926</v>
       </c>
       <c r="G6" s="1">
-        <v>2791.8043</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>48402.9066</v>
+        <v>38454.7774</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9096</v>
+        <v>38454.7774</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0342</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48402.9066</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0071</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.5932</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2791.8043</v>
       </c>
       <c r="F7" s="1">
         <v>568.4014</v>
       </c>
       <c r="G7" s="1">
-        <v>3360.2057</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58810.3201</v>
+        <v>48862.1584</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.856</v>
+        <v>48862.1584</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9096</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58810.3201</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.2741</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3360.2057</v>
       </c>
       <c r="F8" s="1">
         <v>614.4733</v>
       </c>
       <c r="G8" s="1">
-        <v>3974.679</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64348.8607</v>
+        <v>54400.7222</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6115</v>
+        <v>54400.7222</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.856</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64348.8607</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0648</v>
+        <v>-0.07580000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.0497</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3974.679</v>
       </c>
       <c r="F9" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4561.1996</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>77363.4184</v>
+        <v>67415.32550000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5392</v>
+        <v>67415.32550000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6115</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77363.4184</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0405</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.4616</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4561.1996</v>
       </c>
       <c r="F10" s="1">
         <v>572.6852</v>
       </c>
       <c r="G10" s="1">
-        <v>5133.8848</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89180.71279999999</v>
+        <v>79232.598</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5306</v>
+        <v>79232.598</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5392</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89180.71279999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0208</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.8249</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5133.8848</v>
       </c>
       <c r="F11" s="1">
         <v>561.013</v>
       </c>
       <c r="G11" s="1">
-        <v>5694.8978</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>100984.7745</v>
+        <v>91036.6121</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5596</v>
+        <v>91036.6121</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5306</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100984.7745</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0182</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.8446</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5694.8978</v>
       </c>
       <c r="F12" s="1">
         <v>593.6621</v>
       </c>
       <c r="G12" s="1">
-        <v>6288.5598</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105379.2835</v>
+        <v>95431.1102</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4921</v>
+        <v>95431.1102</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5596</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>105379.2835</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0505</v>
+        <v>-0.0555</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.4603</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6288.5598</v>
       </c>
       <c r="F13" s="1">
         <v>607.5223</v>
       </c>
       <c r="G13" s="1">
-        <v>6896.0822</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112922.6558</v>
+        <v>102974.5382</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4012</v>
+        <v>102974.5382</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4921</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112922.6558</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0213</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>15.8064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6896.0822</v>
       </c>
       <c r="F14" s="1">
         <v>-6896.0822</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108436.7544</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4012</v>
+        <v>108436.7544</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9511</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108436.7544</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108436.7544</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>108436.7544</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1178</v>
+        <v>-0.0402</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.0595</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>553.7252</v>
       </c>
       <c r="G2" s="1">
-        <v>553.7252</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.116</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0595</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.116</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.696</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>553.7252</v>
       </c>
       <c r="F3" s="1">
         <v>529.6606</v>
       </c>
       <c r="G3" s="1">
-        <v>1083.3858</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10298.7901</v>
       </c>
       <c r="I3" s="1">
-        <v>19902.534</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.3707</v>
+        <v>10298.7901</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9902.534</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8835</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9902.534</v>
       </c>
-      <c r="O3" s="1">
-        <v>97.46599999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20247.466</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.015</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.8704</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1083.3858</v>
       </c>
       <c r="F4" s="1">
         <v>565.0386</v>
       </c>
       <c r="G4" s="1">
-        <v>1648.4244</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29305.1939</v>
+        <v>19260.1069</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>97.46599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1992</v>
+        <v>19357.5729</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.4606</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10097.466</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29305.1939</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0312</v>
+        <v>-0.0464</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.5604</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1648.4244</v>
       </c>
       <c r="F5" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2217.8875</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38745.1635</v>
+        <v>28796.9846</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0352</v>
+        <v>28796.9846</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1992</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38745.1635</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0142</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.4279</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2217.8875</v>
       </c>
       <c r="F6" s="1">
         <v>573.7926</v>
       </c>
       <c r="G6" s="1">
-        <v>2791.6801</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>48400.7533</v>
+        <v>38452.6241</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9104</v>
+        <v>38452.6241</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0352</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48400.7533</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0071</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.5932</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2791.6801</v>
       </c>
       <c r="F7" s="1">
         <v>568.4014</v>
       </c>
       <c r="G7" s="1">
-        <v>3360.0815</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58808.1464</v>
+        <v>48859.9847</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8567</v>
+        <v>48859.9847</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9104</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58808.1464</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.2741</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3360.0815</v>
       </c>
       <c r="F8" s="1">
         <v>614.4733</v>
       </c>
       <c r="G8" s="1">
-        <v>3974.5548</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64346.8499</v>
+        <v>54398.7115</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.612</v>
+        <v>54398.7115</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8567</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64346.8499</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0648</v>
+        <v>-0.07580000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.0497</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3974.5548</v>
       </c>
       <c r="F9" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4561.0754</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77361.3119</v>
+        <v>67413.219</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.5397</v>
+        <v>67413.219</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.612</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77361.3119</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0405</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.4616</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4561.0754</v>
       </c>
       <c r="F10" s="1">
         <v>572.6852</v>
       </c>
       <c r="G10" s="1">
-        <v>5133.7606</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89178.55530000001</v>
+        <v>79230.4406</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.531</v>
+        <v>79230.4406</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5397</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89178.55530000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0208</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.8249</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5133.7606</v>
       </c>
       <c r="F11" s="1">
         <v>561.013</v>
       </c>
       <c r="G11" s="1">
-        <v>5694.7736</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>100982.5722</v>
+        <v>91034.40979999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.56</v>
+        <v>91034.40979999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.531</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100982.5722</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0182</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.8446</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5694.7736</v>
       </c>
       <c r="F12" s="1">
         <v>593.6621</v>
       </c>
       <c r="G12" s="1">
-        <v>6288.4356</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>105377.2023</v>
+        <v>95429.02899999999</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4924</v>
+        <v>95429.02899999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.56</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>105377.2023</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0505</v>
+        <v>-0.0555</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.4603</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6288.4356</v>
       </c>
       <c r="F13" s="1">
         <v>607.5223</v>
       </c>
       <c r="G13" s="1">
-        <v>6895.958</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112920.6221</v>
+        <v>102972.5045</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4015</v>
+        <v>102972.5045</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4924</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112920.6221</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0213</v>
+        <v>-0.0233</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>15.8064</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6895.958</v>
       </c>
       <c r="F14" s="1">
         <v>-6895.958</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108434.8014</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4015</v>
+        <v>108434.8014</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9514</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>108434.8014</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>108434.8014</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>108434.8014</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1178</v>
+        <v>-0.0402</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.7638</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.4021</v>
+        <v>15.9519</v>
       </c>
       <c r="D3" s="1">
-        <v>17.3924</v>
+        <v>15.943</v>
       </c>
       <c r="E3" s="1">
-        <v>17.4009</v>
+        <v>15.9508</v>
       </c>
       <c r="F3" s="1">
-        <v>17.4012</v>
+        <v>15.9511</v>
       </c>
       <c r="G3" s="1">
-        <v>17.4015</v>
+        <v>15.9514</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1242</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2056</v>
+        <v>-0.1405</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2047</v>
+        <v>-0.1394</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2053</v>
+        <v>-0.1401</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2054</v>
+        <v>-0.1402</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2054</v>
+        <v>-0.1403</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.128</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1466</v>
+        <v>0.1267</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1465</v>
+        <v>0.1264</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1466</v>
+        <v>0.1266</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1466</v>
+        <v>0.1266</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1466</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.129</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.5412</v>
+        <v>-1.269</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.5363</v>
+        <v>-1.2639</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.5392</v>
+        <v>-1.2668</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.5397</v>
+        <v>-1.2674</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.5402</v>
+        <v>-1.2679</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.173</v>
+        <v>-0.3077</v>
       </c>
       <c r="D7" s="3">
         <v>-0.1724</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
